--- a/wer_arm.xlsx
+++ b/wer_arm.xlsx
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>67.6962676962677</v>
+        <v>51.361</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>54.67032967032966</v>
+        <v>42.375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -669,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>53.41830822711472</v>
+        <v>41.284</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -677,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>47.85478547854785</v>
+        <v>31.843</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -685,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>55.81061692969871</v>
+        <v>39.859</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -693,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>60.96131301289566</v>
+        <v>35.556</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -701,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>62.85714285714285</v>
+        <v>52.031</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>59.32388222464559</v>
+        <v>39.59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -717,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>51.50115473441108</v>
+        <v>47.722</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -725,7 +725,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>48.48484848484848</v>
+        <v>42.25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -733,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>62.18274111675127</v>
+        <v>51.198</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -741,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>48.97680763983629</v>
+        <v>32.48</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -749,7 +749,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>58.78453038674033</v>
+        <v>42.873</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -757,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>68.30680173661359</v>
+        <v>57.857</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -765,7 +765,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>58.86426592797784</v>
+        <v>46.477</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>57.93269230769231</v>
+        <v>42.482</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>47.33727810650888</v>
+        <v>39.826</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -789,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>59.12500000000001</v>
+        <v>37.808</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -797,7 +797,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>60.70991432068544</v>
+        <v>57.908</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -805,7 +805,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>50.19404915912031</v>
+        <v>38.796</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -813,7 +813,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>66.91394658753708</v>
+        <v>57.562</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -821,7 +821,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>50.3392130257802</v>
+        <v>42.344</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -829,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>59.03890160183066</v>
+        <v>42.776</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -837,7 +837,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>60.21505376344086</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -845,7 +845,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>46.19883040935672</v>
+        <v>36.614</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -853,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>57.12401055408971</v>
+        <v>44.052</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -861,7 +861,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>61.318407960199</v>
+        <v>44.417</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -869,7 +869,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>55.90551181102362</v>
+        <v>41.566</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -877,7 +877,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>52.45441795231417</v>
+        <v>35.351</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -885,7 +885,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>61.24818577648766</v>
+        <v>41.499</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -893,7 +893,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>54.15162454873646</v>
+        <v>38.333</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -901,7 +901,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>51.18601747815232</v>
+        <v>48.762</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -909,7 +909,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>62.17616580310881</v>
+        <v>46.684</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -917,7 +917,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>55.58112773302647</v>
+        <v>41.943</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -925,7 +925,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>52.39852398523985</v>
+        <v>35.792</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -933,7 +933,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>48.65181711606096</v>
+        <v>41.395</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -941,7 +941,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>61.00131752305666</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -949,7 +949,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>57.56756756756756</v>
+        <v>56.192</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -957,7 +957,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>58.77763328998699</v>
+        <v>50.576</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -965,7 +965,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>53.90218522372528</v>
+        <v>38.037</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -973,7 +973,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>49.75728155339806</v>
+        <v>43.165</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -981,7 +981,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>51.07102593010146</v>
+        <v>33.408</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>53.99484536082474</v>
+        <v>45.408</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -997,7 +997,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>44.45768772348033</v>
+        <v>34.386</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1005,7 +1005,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>60.80627099664054</v>
+        <v>45.344</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1013,7 +1013,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>57.60869565217391</v>
+        <v>50.74</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>49.61636828644501</v>
+        <v>39.646</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1029,7 +1029,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>55.01392757660167</v>
+        <v>50.484</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>54.14634146341464</v>
+        <v>43.064</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1045,7 +1045,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>51.88470066518847</v>
+        <v>40.635</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1053,7 +1053,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>55.61056105610561</v>
+        <v>54.187</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1061,7 +1061,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>47.13216957605985</v>
+        <v>38.072</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1069,7 +1069,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>53.22966507177034</v>
+        <v>37.943</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1077,7 +1077,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>42.05128205128205</v>
+        <v>31.345</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>54.43959243085881</v>
+        <v>40.26</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>56.14285714285714</v>
+        <v>35.484</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>59.77722772277227</v>
+        <v>50.184</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>46.59913169319827</v>
+        <v>34.936</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>54.03659849300323</v>
+        <v>38.877</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>53.95894428152492</v>
+        <v>35.493</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>56.26794258373206</v>
+        <v>47.348</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>59.34755332496863</v>
+        <v>45.285</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>59.69267139479906</v>
+        <v>49.591</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>53.64758698092032</v>
+        <v>44.022</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>55.72413793103448</v>
+        <v>37.827</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1173,7 +1173,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>51.92519251925193</v>
+        <v>37.609</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1181,7 +1181,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>59.3421052631579</v>
+        <v>45.312</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>71.33757961783439</v>
+        <v>73.46899999999999</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1197,7 +1197,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>69.16010498687663</v>
+        <v>63.601</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>52.60416666666666</v>
+        <v>41.433</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1213,7 +1213,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>50.50391937290034</v>
+        <v>41.953</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1221,7 +1221,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>56.45355850422196</v>
+        <v>45.878</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1229,7 +1229,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>59.01060070671378</v>
+        <v>43.794</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1237,7 +1237,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>59.35302390998594</v>
+        <v>50.972</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1245,7 +1245,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>62.33595800524935</v>
+        <v>47.601</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1253,7 +1253,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>52.9100529100529</v>
+        <v>49.828</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1261,7 +1261,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>61.51121605667061</v>
+        <v>43.524</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1269,7 +1269,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>55.8922558922559</v>
+        <v>40.869</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1277,7 +1277,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>58.05142083897158</v>
+        <v>36.751</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1285,7 +1285,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>51.35135135135135</v>
+        <v>43.111</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1293,7 +1293,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>54.84662576687117</v>
+        <v>43.636</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1301,7 +1301,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>49.46107784431138</v>
+        <v>42.959</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1309,7 +1309,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>53.69349503858876</v>
+        <v>35.621</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1317,7 +1317,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>52.6046986721144</v>
+        <v>40.02</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1325,7 +1325,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>55.97897503285151</v>
+        <v>53.403</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1333,7 +1333,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>53.98373983739837</v>
+        <v>43.871</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1341,7 +1341,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>48.51485148514851</v>
+        <v>38.44</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1349,7 +1349,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>51.76886792452831</v>
+        <v>48.949</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1357,7 +1357,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>58.22328931572629</v>
+        <v>44.762</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1365,7 +1365,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>61.18784530386741</v>
+        <v>42.355</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1373,7 +1373,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>50.80946450809465</v>
+        <v>39.657</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1381,7 +1381,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>49.07407407407408</v>
+        <v>40.261</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1389,7 +1389,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>53.1578947368421</v>
+        <v>46.415</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1397,7 +1397,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>47.63948497854077</v>
+        <v>30.361</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1405,7 +1405,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>58.44327176781002</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1413,7 +1413,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>48.06295399515739</v>
+        <v>30.824</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1421,7 +1421,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>53.99393326592518</v>
+        <v>35.815</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1429,7 +1429,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>70.7171314741036</v>
+        <v>59.473</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1437,7 +1437,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>48.13925570228091</v>
+        <v>39.358</v>
       </c>
     </row>
   </sheetData>
